--- a/StructureDefinition-NatlDir-Organization.xlsx
+++ b/StructureDefinition-NatlDir-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:12:19-04:00</t>
+    <t>2021-10-29T10:58:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NatlDir-Organization.xlsx
+++ b/StructureDefinition-NatlDir-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T10:58:57-04:00</t>
+    <t>2021-11-17T10:46:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,13 +235,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
@@ -775,15 +775,15 @@
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
     <t>Organization.identifier.value</t>
   </si>
   <si>
@@ -802,13 +802,13 @@
     <t>Identifier.value</t>
   </si>
   <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -827,13 +827,13 @@
     <t>Identifier.period</t>
   </si>
   <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
     <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
     <t>Organization.identifier.assigner</t>
@@ -855,13 +855,13 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>NPI</t>
@@ -912,13 +912,13 @@
     <t>true</t>
   </si>
   <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>No equivalent in HL7 v2</t>
-  </si>
-  <si>
-    <t>.status</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -968,13 +968,13 @@
     <t>Need to use the name as the label of the organization.</t>
   </si>
   <si>
+    <t>XON.1</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
     <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>XON.1</t>
-  </si>
-  <si>
-    <t>.name</t>
   </si>
   <si>
     <t>Organization.alias</t>
@@ -1020,13 +1020,13 @@
 org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
   </si>
   <si>
     <t>Organization.telecom.id</t>
@@ -1083,15 +1083,15 @@
 </t>
   </si>
   <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
     <t>./ContactPointType</t>
   </si>
   <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
     <t>Organization.telecom.value</t>
   </si>
   <si>
@@ -1140,13 +1140,13 @@
     <t>ContactPoint.use</t>
   </si>
   <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
     <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
   </si>
   <si>
     <t>Organization.telecom.rank</t>
@@ -1265,12 +1265,12 @@
     <t>Address.use</t>
   </si>
   <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
     <t>./AddressPurpose</t>
   </si>
   <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
     <t>Organization.address.type</t>
   </si>
   <si>
@@ -1343,13 +1343,13 @@
     <t>Address.line</t>
   </si>
   <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
     <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
   </si>
   <si>
     <t>Organization.address.city</t>
@@ -1371,13 +1371,13 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
     <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
   </si>
   <si>
     <t>Organization.address.district</t>
@@ -1430,13 +1430,13 @@
     <t>Address.state</t>
   </si>
   <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
     <t>./Sites</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
   </si>
   <si>
     <t>Organization.address.postalCode</t>
@@ -1458,15 +1458,15 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
     <t>./PostalIdentificationCode</t>
   </si>
   <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
     <t>Organization.address.country</t>
   </si>
   <si>
@@ -1482,15 +1482,15 @@
     <t>Address.country</t>
   </si>
   <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
     <t>./Country</t>
   </si>
   <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
     <t>Organization.address.period</t>
   </si>
   <si>
@@ -1504,8 +1504,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
@@ -2056,9 +2056,9 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2278,13 +2278,13 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -2610,10 +2610,10 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2721,10 +2721,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -3720,10 +3720,10 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3831,10 +3831,10 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -4273,10 +4273,10 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -4381,13 +4381,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>213</v>
@@ -4493,10 +4493,10 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4604,10 +4604,10 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4714,13 +4714,13 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4827,13 +4827,13 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -5384,19 +5384,19 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>203</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5497,13 +5497,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>213</v>
@@ -5723,13 +5723,13 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>298</v>
@@ -5952,10 +5952,10 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -6174,10 +6174,10 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6285,10 +6285,10 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6726,13 +6726,13 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6950,13 +6950,13 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7059,13 +7059,13 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7172,13 +7172,13 @@
         <v>380</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7284,10 +7284,10 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7395,10 +7395,10 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7621,10 +7621,10 @@
         <v>399</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7729,13 +7729,13 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7842,13 +7842,13 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -8171,13 +8171,13 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8611,13 +8611,13 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>260</v>
+        <v>479</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8722,13 +8722,13 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8838,10 +8838,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>492</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>492</v>
+        <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8947,10 +8947,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9058,10 +9058,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9171,10 +9171,10 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9282,10 +9282,10 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>506</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9390,13 +9390,13 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9501,13 +9501,13 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>519</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9613,10 +9613,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9724,10 +9724,10 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -10165,13 +10165,13 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10389,13 +10389,13 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10498,13 +10498,13 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10609,13 +10609,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>76</v>
+        <v>531</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>532</v>
+        <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10723,10 +10723,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
